--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2101149.966309379</v>
+        <v>-2075891.519297654</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17475878.18025491</v>
+        <v>16811344.37236569</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11463601.7337517</v>
+        <v>11490456.75651782</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>299.2040639501893</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>253.329599214675</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>94.06821914862122</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>63.25581158649019</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>85.00377606262818</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>310.5122002751354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -908,13 +908,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>285.4741760075482</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>25.68008452176533</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>61.93229931510164</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,19 +1139,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>34.7831602542068</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>34.02291473159579</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>84.01976803536571</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>192.6885925717419</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,16 +1376,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>67.3818960713985</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1537,7 +1537,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>14.14416275345361</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948845</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1771,19 +1771,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>203.2613507217563</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -2008,16 +2008,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>43.70143389869422</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2248,13 +2248,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
         <v>217.8665548556918</v>
@@ -2485,7 +2485,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>14.14416275345335</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2567,7 +2567,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629683</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>14.14416275345335</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2956,16 +2956,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>43.70143389869422</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3047,7 +3047,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W32" t="n">
-        <v>400.8069000430772</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>390.8339870829387</v>
       </c>
     </row>
     <row r="33">
@@ -3202,10 +3202,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432343</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934458</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413114</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496636</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385526</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
         <v>413.2012870545404</v>
@@ -3281,7 +3281,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724686</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925404</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>240.394369317406</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
         <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043297</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>398.7153284477351</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245958</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3424,25 +3424,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432245</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934519</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S37" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T37" t="n">
-        <v>227.184941618582</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006784</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V37" t="n">
         <v>267.8502427095265</v>
       </c>
       <c r="W37" t="n">
-        <v>253.0704300308241</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X37" t="n">
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413114</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496636</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385526</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E38" t="n">
         <v>413.2012870545404</v>
@@ -3518,7 +3518,7 @@
         <v>381.1481427242214</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724686</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925404</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
       </c>
       <c r="U38" t="n">
-        <v>240.394369317406</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V38" t="n">
         <v>342.7550702267644</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043297</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X38" t="n">
-        <v>398.7153284477351</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245958</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432409</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934519</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
-        <v>227.184941618582</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006784</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V40" t="n">
         <v>267.8502427095265</v>
       </c>
       <c r="W40" t="n">
-        <v>253.0704300308241</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X40" t="n">
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3898,7 +3898,7 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
@@ -3916,7 +3916,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934483</v>
+        <v>4.967932742934469</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -4043,7 +4043,7 @@
         <v>398.715328447735</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>387.9675521245964</v>
       </c>
     </row>
     <row r="45">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934469</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001416</v>
+        <v>935.1667901605819</v>
       </c>
       <c r="C2" t="n">
-        <v>449.961607123969</v>
+        <v>632.9404629381684</v>
       </c>
       <c r="D2" t="n">
-        <v>418.0922263388176</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>418.0922263388176</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>418.0922263388176</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,49 +4331,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449919</v>
+        <v>935.1667901605819</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446453</v>
+        <v>935.1667901605819</v>
       </c>
     </row>
     <row r="3">
@@ -4404,25 +4404,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4087263891149</v>
+        <v>606.0147495907747</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4087263891149</v>
+        <v>542.1199904125018</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4489,22 +4489,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4522,16 +4522,16 @@
         <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W4" t="n">
-        <v>711.6628811189632</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="X4" t="n">
-        <v>466.2711264523757</v>
+        <v>1025.253038995654</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.4087263891149</v>
+        <v>797.8333683097619</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.2911052642175</v>
+        <v>458.9995543026567</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1890364880448</v>
+        <v>424.897485526484</v>
       </c>
       <c r="D5" t="n">
-        <v>489.3196557028934</v>
+        <v>393.0281047413326</v>
       </c>
       <c r="E5" t="n">
-        <v>459.5853149015927</v>
+        <v>363.2937639400319</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>339.4667383896436</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>339.4667383896436</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>51.10898484666562</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666562</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>486.3636722995835</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>574.8490166666553</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1207.322704144142</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1839.796391621629</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2386.295177580224</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333281</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333281</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.382015206319</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2076.159712523337</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.542762457163</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1308.687307868196</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>889.544844447507</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>481.2587207471604</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>1398.381225845765</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>1291.924764682407</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>1196.83447582896</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>1102.714061155914</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>1019.330222772076</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>933.9451330382597</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>892.2094808544721</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>918.2731540149297</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>1242.831478981142</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>1875.305166458629</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>1897.537525606866</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>1897.537525606866</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>1897.537525606866</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1897.537525606866</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1897.537525606866</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>2438.276464238941</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333281</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>2491.993804781664</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>2361.815161112266</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>2185.478614112234</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1986.361096174233</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>1801.038341907427</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>1646.170906146307</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>1519.685126925528</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.5053801183834</v>
+        <v>791.7274411432948</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>791.7274411432948</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>791.7274411432948</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.969437394032</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>445.2623833557881</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.6711083816158</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.7689340719903</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666562</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>51.10898484666562</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>325.8674394178012</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>744.0773211857622</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1203.561188366675</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1645.81999152432</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2065.489240750101</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.996134720443</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2555.449242333281</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2534.031421038653</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2374.790052336649</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2128.910605915104</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1850.47760516821</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1563.52209703864</v>
       </c>
       <c r="W7" t="n">
-        <v>679.3168054708626</v>
+        <v>1291.495692624932</v>
       </c>
       <c r="X7" t="n">
-        <v>433.9250508042751</v>
+        <v>1046.103937958344</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.5053801183834</v>
+        <v>983.5460598622819</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>552.3238179760524</v>
+        <v>863.8788077480212</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2217491998797</v>
+        <v>829.7767389718487</v>
       </c>
       <c r="D8" t="n">
-        <v>486.3523684147282</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1662.048924773138</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1402.826622090155</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1402.826622090155</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>997.971167501188</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>982.8691081209028</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>978.6233884609602</v>
+        <v>886.137974192525</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.5053801183834</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>392.520893289101</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>226.9296183149287</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1481.130666794131</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1202.697666047236</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>915.7421579176664</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>643.715753503958</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>398.3239988373705</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.3239988373705</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1424.094121422156</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>985.9516486055795</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>550.041863780024</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>481.979342495783</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>481.979342495783</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>80.58151111904695</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>80.58151111904695</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>80.16472174618696</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>80.16472174618696</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>80.16472174618696</v>
+        <v>1039.550377927473</v>
       </c>
       <c r="L11" t="n">
-        <v>80.16472174618696</v>
+        <v>2114.610344180332</v>
       </c>
       <c r="M11" t="n">
-        <v>492.05526358493</v>
+        <v>3271.658179390883</v>
       </c>
       <c r="N11" t="n">
-        <v>1484.093695193993</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O11" t="n">
-        <v>2464.2733617643</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P11" t="n">
-        <v>3292.583236597696</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3839.082022556291</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4008.236087309348</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3924.584213493185</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3704.516986366223</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.29468368324</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3082.677733617066</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2677.8222790281</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2258.679815607411</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1850.393691907064</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>586.3364667374798</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>479.880005574122</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>384.7897167206753</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>290.669302047629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2854636637906</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>121.9003739299745</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>80.16472174618696</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>80.16472174618696</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>80.16472174618696</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>80.16472174618696</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>80.16472174618696</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>80.16472174618696</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>80.16472174618696</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>265.7696000193824</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1085.492766498581</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1626.231705130656</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1743.404483224996</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1679.949045673379</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1549.770402003981</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1373.433855003949</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1174.316337065948</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>988.9935827991421</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>834.1261470380222</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>707.6403678172429</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.240737869171</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>595.6790263523959</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>429.8010335539186</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>260.0430298046559</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>245.7559967203593</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>80.16472174618696</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>80.16472174618696</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>80.16472174618696</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>166.7444069108768</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>441.5028614820124</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>859.7127432499734</v>
+        <v>881.8088617745698</v>
       </c>
       <c r="M13" t="n">
-        <v>1319.196610430886</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N13" t="n">
-        <v>1761.455413588531</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O13" t="n">
-        <v>2181.124662814313</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P13" t="n">
-        <v>2528.631556784655</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2696.824331648987</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2675.406510354358</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S13" t="n">
-        <v>2516.165141652355</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2270.28569523081</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>1991.852694483915</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.897186354346</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.870781940637</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.47902727405</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>960.0593565881582</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5276,37 +5276,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912873</v>
@@ -5315,13 +5315,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D16" t="n">
-        <v>451.897152078511</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E16" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2513.605954495037</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2235.172953748142</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5513,37 +5513,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912873</v>
@@ -5589,25 +5589,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>407.7542895545774</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,52 +5750,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>852.6195887352246</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>2009.667423945775</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3135.398407382223</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952529</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,37 +5975,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>282.1391483292483</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>116.5478733550759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>116.5478733550759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
         <v>391.8077842004234</v>
@@ -6224,13 +6224,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
         <v>1463.16863798718</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>282.1391483292483</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>116.5478733550759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E29" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436396</v>
@@ -6461,52 +6461,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>407.7542895545774</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2526.191026596966</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2088.048553780389</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1652.138768954834</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1218.364024113129</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>790.4965945223365</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>389.0987631456004</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="I32" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>535.2232960417346</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1369.573587999912</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>2444.633554252772</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2474.28803732548</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>2474.28803732548</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3454.467703895787</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4282.777578729182</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>4829.276364687777</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>4998.430429440834</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>4931.178263037547</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4727.510743323463</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4484.688148053356</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4138.470905400059</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3750.015158223968</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3347.272402216155</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2952.490597081874</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>606.1403535801095</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>499.6838924167517</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>404.593603563305</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>310.4731888902587</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>227.0893505064203</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>141.7042607726042</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>126.0322817492743</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>450.5906067154866</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1131.324126785864</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1131.324126785864</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1131.324126785864</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1131.324126785864</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1131.324126785864</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1131.324126785864</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>1646.035591973286</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>1763.208370067626</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>1699.752932516009</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>1569.57428884661</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>1393.237741846579</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>1194.120223908578</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>1008.797469641772</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>853.9300338806519</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>727.4442546598726</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992528</v>
+        <v>1064.228817310564</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886291</v>
+        <v>908.0668132066655</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>758.5885278210644</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666413</v>
+        <v>605.2302314846778</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412736</v>
+        <v>444.9228848593102</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799774</v>
+        <v>295.7313172980139</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832281</v>
+        <v>172.2288504012646</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>99.96860858881668</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708294</v>
+        <v>202.6216469888664</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773249</v>
+        <v>493.4534547953619</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806457</v>
+        <v>927.7366897986828</v>
       </c>
       <c r="M34" t="n">
-        <v>1405.586141896919</v>
+        <v>1403.293910214956</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.918298289923</v>
+        <v>1861.62606660796</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751065</v>
+        <v>2297.368669069102</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956767</v>
+        <v>2660.948916274803</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2845.215044374495</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2840.196930492743</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885579</v>
+        <v>2697.355269203616</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.16776187691</v>
+        <v>2467.875530194947</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2205.842236860928</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826198</v>
+        <v>1935.286436144235</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825366</v>
+        <v>1679.659739143402</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1450.667691889691</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298639</v>
+        <v>1239.647728616676</v>
       </c>
     </row>
     <row r="35">
@@ -6917,67 +6917,67 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581788</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K35" t="n">
-        <v>97.56670367581788</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>97.56670367581788</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M35" t="n">
-        <v>1228.461808239094</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N35" t="n">
-        <v>2354.192791675541</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245847</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079243</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037838</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790894</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673523</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403415</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750118</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574027</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
         <v>2835.290740278742</v>
@@ -7008,28 +7008,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581788</v>
+        <v>123.6303768362755</v>
       </c>
       <c r="J36" t="n">
-        <v>97.56670367581788</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K36" t="n">
-        <v>97.56670367581788</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L36" t="n">
-        <v>97.56670367581788</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M36" t="n">
-        <v>97.56670367581788</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N36" t="n">
-        <v>97.56670367581788</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O36" t="n">
-        <v>283.1715819490133</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P36" t="n">
         <v>1102.894748428211</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397565</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936661</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080649</v>
+        <v>756.1866229080654</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716782</v>
+        <v>602.8283265716789</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463105</v>
+        <v>442.5209799463112</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850142</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882648</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>491.051549882363</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>925.3347848856839</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
         <v>1400.892005301957</v>
@@ -7138,7 +7138,7 @@
         <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703676</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581786</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581786</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581786</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>1228.461808239093</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
@@ -7205,13 +7205,13 @@
         <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581786</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581786</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581786</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936677</v>
+        <v>905.6649082936669</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080665</v>
+        <v>756.1866229080658</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716791</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463121</v>
+        <v>442.5209799463116</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850159</v>
+        <v>293.3294123850155</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882665</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758692</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823646</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856855</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301958</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694963</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156104</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361806</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
         <v>2842.813139461497</v>
@@ -7357,25 +7357,25 @@
         <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7412,43 +7412,43 @@
         <v>97.56670367581785</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581785</v>
+        <v>540.3167323207291</v>
       </c>
       <c r="L41" t="n">
-        <v>97.56670367581785</v>
+        <v>1615.376698573589</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239092</v>
+        <v>2772.424533784139</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>3898.155517220586</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
@@ -7485,25 +7485,25 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581785</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>283.1715819490133</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936671</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080659</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463116</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882665</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581785</v>
@@ -7591,7 +7591,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7631,10 +7631,10 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7646,28 +7646,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581785</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
         <v>4878.335183790892</v>
@@ -7676,22 +7676,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581785</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581785</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581785</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581785</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581785</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581785</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="O45" t="n">
-        <v>283.1715819490133</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1669.661160504941</v>
       </c>
       <c r="R45" t="n">
         <v>1760.806465154627</v>
@@ -7804,13 +7804,13 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758674</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823628</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856838</v>
       </c>
       <c r="M46" t="n">
         <v>1400.892005301957</v>
@@ -7834,16 +7834,16 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
@@ -7979,28 +7979,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,28 +8052,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>89.37913572431489</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833202</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833203</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,31 +8289,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>638.8623105833203</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>22.45692843256211</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8374,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>143.8920278917553</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8687,25 +8687,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>507.1059092967429</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>416.0510523623667</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827337</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>318.2869303146739</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9419,7 +9419,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9653,10 +9653,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,19 +10109,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>29.95402330576599</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1142.318287437653</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,10 +10659,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437652</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11060,13 +11060,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>447.2222511564761</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.318287437651</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11075,13 +11075,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>178.2210877626249</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>130.6621837640436</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5802828151171</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>362.0551013218893</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>40.15930123557294</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>73.62918697961807</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>124.3589898130759</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>899875.1064278793</v>
+        <v>750561.8449766999</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>981182.8359756732</v>
+        <v>996586.019806604</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>981182.8359756732</v>
+        <v>998642.9388564074</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>851525.1305003585</v>
+        <v>1016072.884498337</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1032329.922066185</v>
+        <v>1030749.509359966</v>
       </c>
     </row>
     <row r="13">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>69320.13118371996</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>8900.449092101841</v>
       </c>
       <c r="E3" t="n">
-        <v>172507.3700725249</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>79138.90570471795</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55222.53889197381</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>12988.56827099789</v>
       </c>
       <c r="M3" t="n">
-        <v>129358.421397884</v>
+        <v>144718.1170387507</v>
       </c>
       <c r="N3" t="n">
-        <v>67649.20027341126</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185574.3908571706</v>
+        <v>136875.4802388638</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>178390.1777075792</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.119437218</v>
+        <v>173889.535266443</v>
       </c>
       <c r="E4" t="n">
-        <v>79513.37073726681</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="F4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="G4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="I4" t="n">
         <v>94878.44464875289</v>
@@ -26442,22 +26442,22 @@
         <v>94878.44464875289</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875291</v>
       </c>
       <c r="L4" t="n">
-        <v>100220.8024653862</v>
+        <v>103678.8250359887</v>
       </c>
       <c r="M4" t="n">
-        <v>107302.2988178705</v>
+        <v>107302.2988178706</v>
       </c>
       <c r="N4" t="n">
         <v>107302.2988178706</v>
       </c>
       <c r="O4" t="n">
+        <v>107302.2988178706</v>
+      </c>
+      <c r="P4" t="n">
         <v>107302.2988178705</v>
-      </c>
-      <c r="P4" t="n">
-        <v>107302.2988178706</v>
       </c>
     </row>
     <row r="5">
@@ -26470,40 +26470,40 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72470.42848346586</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60925.18852710208</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826066</v>
+        <v>77341.06245996883</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608974</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
         <v>75515.61472608971</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387190.4796541029</v>
+        <v>-338821.027594366</v>
       </c>
       <c r="C6" t="n">
-        <v>-271517.9075744402</v>
+        <v>-320180.737374765</v>
       </c>
       <c r="D6" t="n">
-        <v>-271517.9075744403</v>
+        <v>-257002.5089203026</v>
       </c>
       <c r="E6" t="n">
-        <v>-312945.9293368938</v>
+        <v>-354975.0168149779</v>
       </c>
       <c r="F6" t="n">
-        <v>-251735.5889592633</v>
+        <v>-172619.9075939281</v>
       </c>
       <c r="G6" t="n">
-        <v>-172596.6832545454</v>
+        <v>-172619.9075939281</v>
       </c>
       <c r="H6" t="n">
-        <v>-172596.6832545454</v>
+        <v>-172619.907593928</v>
       </c>
       <c r="I6" t="n">
-        <v>-172596.6832545454</v>
+        <v>-172619.907593928</v>
       </c>
       <c r="J6" t="n">
-        <v>-283611.1485995356</v>
+        <v>-283634.3729389182</v>
       </c>
       <c r="K6" t="n">
-        <v>-172596.6832545454</v>
+        <v>-227842.4464859019</v>
       </c>
       <c r="L6" t="n">
-        <v>-192292.5292746447</v>
+        <v>-194008.4557669554</v>
       </c>
       <c r="M6" t="n">
-        <v>-312176.3349418443</v>
+        <v>-327536.030582711</v>
       </c>
       <c r="N6" t="n">
-        <v>-250467.1138173715</v>
+        <v>-182817.9135439603</v>
       </c>
       <c r="O6" t="n">
         <v>-182817.9135439603</v>
       </c>
       <c r="P6" t="n">
-        <v>-182817.9135439603</v>
+        <v>-182817.9135439602</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833202</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1002.059021827337</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26817,10 +26817,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1278.260503384745</v>
+        <v>1249.607607360208</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947724</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>214.5664530632159</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>28.65289602453672</v>
       </c>
       <c r="E4" t="n">
-        <v>577.7631643072325</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>276.2014815574082</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201042</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632161</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.0864568702109</v>
+        <v>580.7214853644031</v>
       </c>
       <c r="N4" t="n">
-        <v>276.201481557408</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>214.5664530632159</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>28.65289602453672</v>
       </c>
       <c r="M4" t="n">
-        <v>577.7631643072325</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>276.2014815574082</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>134.5569841382216</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>172.6534501503039</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27594,16 +27594,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.1416979164046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.5243745049233</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0.764677003667714</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>243.626055847806</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>163.2131746639312</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,19 +27859,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>183.083394601485</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>370.1803477317473</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>54.48338453116351</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>50.73205938558741</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>13.36927538040442</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874896</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874732</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874674</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
   </sheetData>
@@ -34699,28 +34699,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,28 +34772,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34857,16 +34857,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34875,7 +34875,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>89.37913572431489</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>638.8623105833202</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>638.8623105833203</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,31 +35009,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>638.8623105833203</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>22.45692843256211</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>143.8920278917553</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>507.1059092967429</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>416.0510523623667</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1002.059021827337</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080452</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>318.2869303146739</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36139,7 +36139,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36373,10 +36373,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>29.95402330576599</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,13 +37160,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
@@ -37233,19 +37233,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M34" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N34" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1142.318287437653</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497274</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37467,16 +37467,16 @@
         <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
         <v>367.2527749552542</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1142.318287437652</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778296</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467888</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>447.2222511564761</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.318287437651</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1142.318287437651</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,16 +38108,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778278</v>
       </c>
       <c r="K46" t="n">
         <v>293.7695028348439</v>
@@ -38187,7 +38187,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
